--- a/biology/Botanique/Conocarpus_erectus/Conocarpus_erectus.xlsx
+++ b/biology/Botanique/Conocarpus_erectus/Conocarpus_erectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conocarpus erectus, communément appelé mangrove à boutons,  est une espèce d'arbre ou arbuste de mangrove de la famille des Combretaceae poussant sur les rives des régions tropicales et subtropicales du monde entier.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On en voit notamment en Floride, aux Bermudes, aux Bahamas, dans les Caraïbes, en Amérique centrale et en Amérique du Sud, du Mexique au Brésil sur la côte atlantique et du Mexique à l'Équateur sur la côte du Pacifique
 On le trouve aussi en Afrique occidentale, en Mélanésie et en Polynésie. 
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Conocarpus erectus est généralement un arbuste dense à multiples troncs, mesurant de 1 à 4 m, mais pouvant se développer jusqu'à un arbre de 20 m ou plus, avec un tronc atteignant 1 m de diamètre.
 L'écorce est épaisse et présente de larges plaques d'écailles minces qui sont grises à brunes. Les rameaux sont cassants et inclinés ou étroitement ailés en coupe transversale.
@@ -579,7 +595,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe deux variétés , non acceptées comme distinctes par toutes les autorités:
 Conocarpus erectus var. erectus - bois de bouton vert , feuilles légèrement velues ou glabres
@@ -611,11 +629,49 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'arbre est utilisé comme plante ornementale et en bonsaï. La variété sericeus, aux feuilles argentées, est particulièrement prisée pour l'aménagement paysager. C'est une plante hôte importante pour les épiphytes. À la suite de plantation ornementale, il a été naturalisé à Hawaii. Il a été largement utilisé dans l'aménagement paysager au Koweït et est devenu l'arbre / arbuste le plus abondant. On pense généralement que le conocarpus sert de fourrage pour le buffle d'Afrique, et il est entendu qu'il s'agit de la source de son urine acide.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est utilisé comme plante ornementale et en bonsaï. La variété sericeus, aux feuilles argentées, est particulièrement prisée pour l'aménagement paysager. C'est une plante hôte importante pour les épiphytes. À la suite de plantation ornementale, il a été naturalisé à Hawaii. Il a été largement utilisé dans l'aménagement paysager au Koweït et est devenu l'arbre / arbuste le plus abondant. On pense généralement que le conocarpus sert de fourrage pour le buffle d'Afrique, et il est entendu qu'il s'agit de la source de son urine acide.
 Le bois est parfois utilisé dans les armoires; il est difficile de travailler mais prend une finition lisse. Il est également utilisé comme bois de chauffage et serait bon pour fumer la viande et le poisson, car il brûle très chaudement et lentement; il fait aussi du charbon de bois de haute qualité. L' écorce est riche en tanins et est récoltée commercialement.
-Utilisations médicinales
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conocarpus_erectus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conocarpus_erectus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisations médicinales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rhumatismes, plaies et coupures, vomitif.
 Des chercheurs africains ont mis en évidence une activité antimicrobienne qui conforte l'utilisation traditionnelle dans les soins des plaies et des coupures. Mais aucune étude scientifique ne confirme ses effets contre les rhumatismes et ses propriétés vomitives.
 [réf. nécessaire]</t>
